--- a/TP3 Simulacion/datos.xlsx
+++ b/TP3 Simulacion/datos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,12 +26,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CCFF"/>
+        <bgColor rgb="0099CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,82 +465,82 @@
           <t>Demanda</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RndAuto1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TipoAuto1</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>RndAuto2</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TipoAuto2</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RndAuto3</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TipoAuto3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>RndAuto4</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>TipoAuto4</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ComisionAuto1</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CantidadComision1</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>ComisionAuto2</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>CantidadComision2</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>ComisionAuto3</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>CantidadComision3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>ComisionAuto4</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>CantidadComision4</t>
         </is>
@@ -551,17 +579,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8877</t>
+          <t>0.5323</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8357</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -571,7 +599,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.1289</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -581,12 +609,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3718</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -601,7 +629,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.8573</t>
+          <t>0.826</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -626,7 +654,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -651,17 +679,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>750</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>750</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>750.0</t>
         </is>
       </c>
     </row>
@@ -673,44 +701,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6347</t>
+          <t>0.9066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.1638</t>
+          <t>0.9498</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.5261</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>0</t>
@@ -723,34 +751,34 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7018</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.2107</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>0</t>
@@ -773,17 +801,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>825.0</t>
+          <t>1450.0</t>
         </is>
       </c>
     </row>
@@ -795,42 +823,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.149</t>
+          <t>0.8752</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3616</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.8016</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5235</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -850,27 +878,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7474</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5864</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -895,17 +923,17 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>550.0</t>
+          <t>1383.3333</t>
         </is>
       </c>
     </row>
@@ -917,42 +945,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.3453</t>
+          <t>0.8363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.7414</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.6704</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7059</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -967,34 +995,34 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.7081</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.483</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1007,7 +1035,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.5802</t>
+          <t>0.5781</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1017,17 +1045,17 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>537.5</t>
+          <t>1325.0</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1067,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.5595</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.1304</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1094,17 +1122,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.7141</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1139,17 +1167,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>580.0</t>
+          <t>1060.0</t>
         </is>
       </c>
     </row>
@@ -1161,62 +1189,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.4221</t>
+          <t>0.9526</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3428</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4749</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3213</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.6673</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1226,7 +1254,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1236,7 +1264,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1246,7 +1274,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1261,17 +1289,17 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>733.3333</t>
+          <t>1050.0</t>
         </is>
       </c>
     </row>
@@ -1283,22 +1311,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.4562</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1338,7 +1366,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1383,17 +1411,17 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>664.2857</t>
+          <t>900.0</t>
         </is>
       </c>
     </row>
@@ -1405,44 +1433,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.5152</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.3889</t>
+          <t>0.9755</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.3844</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1455,34 +1483,34 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1495,7 +1523,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.2554</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1505,17 +1533,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>10150</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1268.75</t>
+          <t>1725.0</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1555,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.6703</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.5513</t>
+          <t>0.6741</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1547,7 +1575,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.3901</t>
+          <t>0.2106</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1557,12 +1585,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1577,7 +1605,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.2551</t>
+          <t>0.0974</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1602,7 +1630,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1627,17 +1655,17 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>650</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>11050</t>
+          <t>14450</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1227.7778</t>
+          <t>1605.5556</t>
         </is>
       </c>
     </row>
@@ -1649,117 +1677,239 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.6617</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>14450</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1445.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.3645</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.3519</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.5905</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No gana el sorteo</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>11550</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1155.0</t>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>121950</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1219.5</t>
         </is>
       </c>
     </row>

--- a/TP3 Simulacion/datos.xlsx
+++ b/TP3 Simulacion/datos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -879,17 +879,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.3056</t>
+          <t>0.6915</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3773</t>
+          <t>0.2612</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -899,10 +899,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>0</t>
@@ -932,7 +936,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -963,50 +967,54 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.761</t>
+          <t>0.8325</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.4673</t>
+          <t>0.6552</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.3095</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1015,32 +1023,32 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4509</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3635</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -1061,17 +1069,17 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.3825</t>
+          <t>0.2887</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
@@ -1081,7 +1089,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.4605</t>
+          <t>0.2855</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -1165,84 +1173,92 @@
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.5934</t>
+          <t>0.9657</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.9829</t>
+          <t>0.3281</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.845</t>
+          <t>0.4548</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>0.7371</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr"/>
+          <t>0.8018</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.2547</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
           <t>400</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
@@ -1262,7 +1278,7 @@
         </is>
       </c>
       <c r="CL2" t="n">
-        <v>600</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3">
@@ -1271,34 +1287,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.0861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.9682</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8962</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1313,22 +1321,22 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6018</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.9522</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1359,34 +1367,30 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>500</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.2885</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.7035</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1407,12 +1411,12 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.9029</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1453,44 +1457,40 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.5794</t>
+          <t>0.3492</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.1892</t>
+          <t>0.6313</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>0.382</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1505,12 +1505,12 @@
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3082</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
@@ -1551,17 +1551,17 @@
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.1903</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="CL3" t="n">
-        <v>1725</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4">
@@ -1659,26 +1659,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.6342</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>0.5954</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1693,22 +1701,22 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1739,44 +1747,36 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>900</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.6683</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4239</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.0727</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1837,54 +1837,46 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.8055</t>
+          <t>0.3908</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.6108</t>
+          <t>0.9511</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>de lujo</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>0.2419</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>0.8105</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1893,12 +1885,12 @@
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>0.6682</t>
+          <t>0.9991</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
@@ -1908,17 +1900,17 @@
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>0.8207</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
@@ -1939,94 +1931,102 @@
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>0.6331</t>
+          <t>0.9589</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>0.3047</t>
+          <t>0.9412</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>0.5764</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY4" t="inlineStr"/>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5242</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4049</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
@@ -2037,16 +2037,16 @@
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>5050</t>
         </is>
       </c>
       <c r="CL4" t="n">
-        <v>2325</v>
+        <v>2562.5</v>
       </c>
     </row>
     <row r="5">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7566</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.8258</t>
+          <t>0.7814</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7962</t>
+          <t>0.7596</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2085,10 +2085,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2097,7 +2101,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -2107,12 +2111,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.6807</t>
+          <t>0.2379</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -2122,7 +2126,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -2137,7 +2141,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.6795</t>
+          <t>0.7761</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -2147,44 +2151,36 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>2550</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.5746</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.7779</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.588</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2199,22 +2195,22 @@
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.2302</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.8626</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -2249,27 +2245,27 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0.4083</t>
+          <t>0.9169</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -2279,16 +2275,24 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr"/>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="BB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2307,22 +2311,22 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5287</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
@@ -2347,54 +2351,46 @@
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>0.8447</t>
+          <t>0.2603</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>0.5422</t>
+          <t>0.3357</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
         <is>
-          <t>0.0951</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2403,12 +2399,12 @@
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
@@ -2418,51 +2414,51 @@
       </c>
       <c r="CC5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="CL5" t="n">
-        <v>3087.5</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="6">
@@ -2471,40 +2467,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.632</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.6128</t>
+          <t>0.4745</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.7013</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.4217</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>0</t>
@@ -2513,12 +2513,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.6278</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2559,17 +2559,17 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>900</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.6886</t>
+          <t>0.538</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.5721</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.2374</t>
+          <t>0.4944</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -2611,12 +2611,12 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3918</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2657,40 +2657,44 @@
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>650</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.7962</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>0.2613</t>
+          <t>0.7821</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>0.6229</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AZ6" t="inlineStr">
         <is>
           <t>0</t>
@@ -2705,22 +2709,22 @@
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.303</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
@@ -2751,68 +2755,84 @@
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr">
         <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>0.7396</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>0.6951</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="CD6" t="inlineStr">
         <is>
           <t>0</t>
@@ -2820,17 +2840,17 @@
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7373</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
@@ -2841,16 +2861,16 @@
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>6800</t>
         </is>
       </c>
       <c r="CL6" t="n">
-        <v>3462.5</v>
+        <v>4162.5</v>
       </c>
     </row>
     <row r="7">
@@ -2859,7 +2879,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0673</t>
+          <t>0.0544</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2944,29 +2964,25 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.2312</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.4065</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2992,7 +3008,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -3033,90 +3049,102 @@
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>0.637</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>0.465</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>0.9836</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>0.7548</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>3150</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>0.2639</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>0.5743</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7223</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
@@ -3127,17 +3155,17 @@
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>0.899</t>
+          <t>0.8797</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
@@ -3147,7 +3175,7 @@
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>0.565</t>
+          <t>0.7804</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
@@ -3157,22 +3185,22 @@
       </c>
       <c r="BT7" t="inlineStr">
         <is>
-          <t>0.2346</t>
+          <t>0.5952</t>
         </is>
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>0.3833</t>
+          <t>0.8153</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
@@ -3183,32 +3211,32 @@
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>0.1287</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
           <t>400</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3558</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
@@ -3229,16 +3257,16 @@
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>3850</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="CL7" t="n">
-        <v>3850</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="8">
@@ -3247,7 +3275,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3332,49 +3360,45 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.8982</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.5271</t>
+          <t>0.3042</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.9204</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>de lujo</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0.6067</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3383,32 +3407,32 @@
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0.7194</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4284</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0.7937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -3429,60 +3453,72 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>0.402</t>
+          <t>0.9557</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>0.8626</t>
+          <t>0.7373</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr"/>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr"/>
+          <t>0.5999</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>0.2053</t>
+          <t>0.4647</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -3492,7 +3528,7 @@
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
@@ -3502,17 +3538,17 @@
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.6995</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
@@ -3523,27 +3559,27 @@
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>8850</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>0.7798</t>
+          <t>0.3548</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>0.8434</t>
+          <t>0.6771</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
@@ -3553,14 +3589,10 @@
       </c>
       <c r="BT8" t="inlineStr">
         <is>
-          <t>0.4181</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3575,7 +3607,7 @@
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>0.4431</t>
+          <t>0.5529</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
@@ -3590,7 +3622,7 @@
       </c>
       <c r="CC8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD8" t="inlineStr">
@@ -3621,16 +3653,16 @@
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="CL8" t="n">
-        <v>4600</v>
+        <v>6112.5</v>
       </c>
     </row>
     <row r="9">
@@ -3639,44 +3671,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.8442</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8981</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.4523</t>
+          <t>0.7964</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3941</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3685,22 +3713,22 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.2265</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.8921</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3710,7 +3738,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3725,46 +3753,54 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.1951</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>No gana el sorteo</t>
+          <t>Gana el sorteo</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.183</t>
+          <t>0.6276</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
+          <t>0.7923</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3779,12 +3815,12 @@
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4319</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3794,7 +3830,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -3822,53 +3858,57 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>750</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>0.2781</t>
+          <t>0.8271</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>0.9152</t>
+          <t>0.7974</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr"/>
+          <t>0.394</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3877,22 +3917,22 @@
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>0.5868</t>
+          <t>0.4588</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4938</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
@@ -3902,7 +3942,7 @@
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
@@ -3920,55 +3960,67 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
+      <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>10100</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>0.1263</t>
+          <t>0.9923</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr"/>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BT9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr"/>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW9" t="inlineStr"/>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY9" t="inlineStr"/>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BZ9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3976,7 +4028,7 @@
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
@@ -3986,17 +4038,17 @@
       </c>
       <c r="CC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
@@ -4006,7 +4058,7 @@
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
@@ -4014,23 +4066,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="CI9" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
+      <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="CL9" t="n">
-        <v>5350</v>
+        <v>8487.5</v>
       </c>
     </row>
     <row r="10">
@@ -4039,7 +4087,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.2103</t>
+          <t>0.4826</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4049,7 +4097,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.2909</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4128,49 +4176,45 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>7250</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.9203</t>
+          <t>0.5565</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.5931</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.5266</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4179,24 +4223,24 @@
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.8466</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>0.4878</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
       <c r="AL10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4204,7 +4248,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -4225,17 +4269,17 @@
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>750</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>5050</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.1359</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
@@ -4320,35 +4364,39 @@
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>10100</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>0.4476</t>
+          <t>0.5262</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>0.3049</t>
+          <t>0.9889</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4363,22 +4411,22 @@
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.9242</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
           <t>250</t>
-        </is>
-      </c>
-      <c r="CB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="CD10" t="inlineStr">
@@ -4409,16 +4457,16 @@
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="CL10" t="n">
-        <v>5725</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="11">
@@ -4427,7 +4475,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.8977</t>
+          <t>0.8254</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4437,27 +4485,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.6392</t>
+          <t>0.1258</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.5554</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.7044</t>
+          <t>0.6903</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4473,27 +4521,27 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.9797</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.3553</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -4519,17 +4567,17 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>900</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>8650</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.4001</t>
+          <t>0.3792</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -4539,12 +4587,12 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.5459</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -4567,12 +4615,12 @@
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4613,44 +4661,36 @@
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>0.5173</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>0.4628</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>0.3412</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr">
         <is>
           <t>0</t>
@@ -4670,7 +4710,7 @@
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
@@ -4680,7 +4720,7 @@
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
@@ -4711,44 +4751,40 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>10100</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>0.5049</t>
+          <t>0.4956</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.6969</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
         <is>
-          <t>0.612</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr">
         <is>
           <t>0</t>
@@ -4763,22 +4799,22 @@
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.6881</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD11" t="inlineStr">
@@ -4809,16 +4845,16 @@
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>13100</t>
         </is>
       </c>
       <c r="CL11" t="n">
-        <v>6462.5</v>
+        <v>9712.5</v>
       </c>
     </row>
     <row r="12">
@@ -4827,36 +4863,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.8922</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.2125</t>
+          <t>0.9297</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.9578</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>0</t>
@@ -4865,34 +4909,34 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.9241</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>0</t>
@@ -4905,44 +4949,40 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.2501</t>
+          <t>0.8854</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Gana el sorteo</t>
+          <t>No gana el sorteo</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>115273600</t>
+          <t>115708750</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.3554</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0.2096</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
           <t>0</t>
@@ -4968,7 +5008,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5006,30 +5046,34 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>79531200</t>
+          <t>79696150</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>0.4401</t>
+          <t>0.6078</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>0.6973</t>
+          <t>0.5517</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -5039,10 +5083,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AZ12" t="inlineStr">
         <is>
           <t>0</t>
@@ -5057,12 +5105,12 @@
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>0.207</t>
+          <t>0.7266</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
@@ -5072,7 +5120,7 @@
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
@@ -5100,47 +5148,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>750</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>79383650</t>
+          <t>79179600</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>0.6801</t>
+          <t>0.3266</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>0.3167</t>
+          <t>0.9674</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>de lujo</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
-          <t>0.3937</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr">
         <is>
           <t>0</t>
@@ -5155,12 +5203,12 @@
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3621</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
@@ -5170,7 +5218,7 @@
       </c>
       <c r="CC12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD12" t="inlineStr">
@@ -5198,19 +5246,23 @@
           <t>0</t>
         </is>
       </c>
-      <c r="CI12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>79414850</t>
+          <t>79657150</t>
         </is>
       </c>
       <c r="CL12" t="n">
-        <v>88400825</v>
+        <v>88560412.5</v>
       </c>
     </row>
   </sheetData>

--- a/TP3 Simulacion/datos.xlsx
+++ b/TP3 Simulacion/datos.xlsx
@@ -879,84 +879,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6915</t>
+          <t>0.9542</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.2612</t>
+          <t>0.6132</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.2992</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.6658</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>250</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -967,27 +975,27 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.8325</t>
+          <t>0.5481</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6552</t>
+          <t>0.6452</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -997,24 +1005,20 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.1712</t>
+          <t>0.7221</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5383</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1023,7 +1027,7 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4509</t>
+          <t>0.5497</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1033,22 +1037,22 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.1359</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.3635</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -1069,46 +1073,54 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>900</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>900</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.2887</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.2855</t>
+          <t>0.566</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
           <t>compacto</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr"/>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1117,24 +1129,24 @@
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7869</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BH2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1142,7 +1154,7 @@
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
@@ -1163,102 +1175,94 @@
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr">
         <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>0.521</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>0.8858</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>0.9657</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>0.3281</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>0.4548</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>0.7371</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>0.8018</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
-      <c r="BZ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0605</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>0.6102</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>0.1739</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
@@ -1269,16 +1273,16 @@
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="CL2" t="n">
-        <v>825</v>
+        <v>1137.5</v>
       </c>
     </row>
     <row r="3">
@@ -1287,20 +1291,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0861</t>
+          <t>0.3421</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1321,12 +1329,12 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.6553</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1367,30 +1375,34 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.2036</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1411,12 +1423,12 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2834</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1457,17 +1469,17 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.3492</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
@@ -1477,12 +1489,12 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.6313</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>de lujo</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
@@ -1505,12 +1517,12 @@
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>0.3082</t>
+          <t>0.1314</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
@@ -1551,17 +1563,17 @@
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.0869</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
@@ -1646,11 +1658,11 @@
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="CL3" t="n">
-        <v>925</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="4">
@@ -1659,17 +1671,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.6342</t>
+          <t>0.9374</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6656</t>
+          <t>0.6549</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1679,20 +1691,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.5954</t>
+          <t>0.1233</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.6277</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1701,7 +1717,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4672</t>
+          <t>0.5467</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1711,22 +1727,22 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.1624</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>400</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1747,30 +1763,34 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.2549</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1811,12 @@
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.9282</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1837,17 +1857,17 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.3908</t>
+          <t>0.2375</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -1857,12 +1877,12 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.9511</t>
+          <t>0.3241</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
@@ -1885,12 +1905,12 @@
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>0.9991</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
@@ -1931,82 +1951,74 @@
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>0.9589</t>
+          <t>0.7134</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>0.9412</t>
+          <t>0.2518</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
         <is>
-          <t>0.7963</t>
+          <t>0.3357</t>
         </is>
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>0.1608</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>0.9907</t>
-        </is>
-      </c>
-      <c r="BY4" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>0.5242</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>0.1148</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CD4" t="inlineStr">
@@ -2016,17 +2028,17 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>0.4049</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
@@ -2037,16 +2049,16 @@
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>5050</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="CL4" t="n">
-        <v>2562.5</v>
+        <v>2212.5</v>
       </c>
     </row>
     <row r="5">
@@ -2055,44 +2067,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.4999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.7814</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7596</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2101,22 +2105,22 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.2379</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -2126,55 +2130,59 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No gana el sorteo</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.7761</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>No gana el sorteo</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.3002</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2195,12 +2203,12 @@
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.6575</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -2245,27 +2253,27 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0.9169</t>
+          <t>0.6462</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -2275,24 +2283,20 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>0.8197</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>de lujo</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>0.7846</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2311,154 +2315,166 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>0.5287</t>
+          <t>0.3923</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>0.9869</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>0.6297</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>0.9432</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>0.2603</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>0.3357</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3827</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.9964</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No gana el sorteo</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="CL5" t="n">
-        <v>3200</v>
+        <v>3262.5</v>
       </c>
     </row>
     <row r="6">
@@ -2467,44 +2483,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.4884</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.4745</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.3457</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.7013</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>0</t>
@@ -2513,12 +2521,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2528,17 +2536,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.1315</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2559,44 +2567,36 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>500</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.538</t>
+          <t>0.1352</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.5721</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.4944</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
           <t>0</t>
@@ -2611,12 +2611,12 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.3918</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2657,74 +2657,82 @@
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0.7962</t>
+          <t>0.9609</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>0.7821</t>
+          <t>0.4846</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>0.6229</t>
+          <t>0.2323</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr"/>
+          <t>0.353</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr"/>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>0.303</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
@@ -2734,7 +2742,7 @@
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
@@ -2744,7 +2752,7 @@
       </c>
       <c r="BK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
@@ -2755,72 +2763,56 @@
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>0.9876</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>0.7396</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr">
         <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>0.034</t>
-        </is>
-      </c>
-      <c r="BW6" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>0.6591</t>
-        </is>
-      </c>
-      <c r="BY6" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>0.6951</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
@@ -2830,7 +2822,7 @@
       </c>
       <c r="CC6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD6" t="inlineStr">
@@ -2840,17 +2832,17 @@
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>0.7373</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
@@ -2861,16 +2853,16 @@
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>6800</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="CL6" t="n">
-        <v>4162.5</v>
+        <v>3637.5</v>
       </c>
     </row>
     <row r="7">
@@ -2879,26 +2871,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.7553</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>0.8808</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.8444</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -2959,42 +2959,54 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>6050</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>0.808</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+          <t>0.402</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
           <t>0</t>
@@ -3008,17 +3020,17 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.425</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -3028,7 +3040,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -3049,82 +3061,74 @@
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>0.9749</t>
+          <t>0.7339</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>0.7922</t>
+          <t>0.4082</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>0.465</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>0.9836</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>0.9119</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>0.7548</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
@@ -3134,17 +3138,17 @@
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>0.7223</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
@@ -3155,98 +3159,102 @@
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>0.8797</t>
+          <t>0.9892</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>0.7804</t>
+          <t>0.1503</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>0.5952</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>0.8153</t>
-        </is>
-      </c>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY7" t="inlineStr"/>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>0.7044</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr">
-        <is>
-          <t>0.1932</t>
-        </is>
-      </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="CD7" t="inlineStr">
-        <is>
-          <t>0.3558</t>
-        </is>
-      </c>
-      <c r="CE7" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7931</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
@@ -3257,16 +3265,16 @@
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>8100</t>
+          <t>6450</t>
         </is>
       </c>
       <c r="CL7" t="n">
-        <v>5175</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="8">
@@ -3275,20 +3283,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.1648</t>
+          <t>0.2679</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3314,7 +3326,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3355,27 +3367,27 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>0.8155</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.3042</t>
+          <t>0.1754</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3385,20 +3397,24 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.9204</t>
+          <t>0.5954</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3417,22 +3433,22 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0.4284</t>
+          <t>0.7434</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.4905</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -3453,27 +3469,27 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>0.9557</t>
+          <t>0.5603</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>0.7373</t>
+          <t>0.5578</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -3483,7 +3499,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -3493,32 +3509,24 @@
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>0.4104</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>0.5999</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>0.4647</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -3538,17 +3546,17 @@
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>0.6995</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
@@ -3559,46 +3567,54 @@
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>650</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>8850</t>
+          <t>6150</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>0.3548</t>
+          <t>0.8262</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>0.6771</t>
+          <t>0.3939</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0.545</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW8" t="inlineStr"/>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BX8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3607,24 +3623,24 @@
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>0.5529</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="CB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="CD8" t="inlineStr">
         <is>
           <t>0</t>
@@ -3632,7 +3648,7 @@
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
@@ -3653,12 +3669,12 @@
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="CL8" t="n">
@@ -3671,34 +3687,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.619</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.7964</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3718,17 +3726,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3753,54 +3761,46 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.3626</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Gana el sorteo</t>
+          <t>No gana el sorteo</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>9200</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.6276</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.7923</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0.3601</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3815,12 +3815,12 @@
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0.4319</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -3858,57 +3858,53 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>0.8271</t>
+          <t>0.4225</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>0.7974</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>0.394</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3917,138 +3913,134 @@
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>0.4588</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>0.9551</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>0.6765</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>0.4938</t>
-        </is>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>1250</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>10100</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>0.9923</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>0.3725</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>0.8632</t>
-        </is>
-      </c>
-      <c r="BW9" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
-      <c r="BX9" t="inlineStr">
-        <is>
-          <t>0.4027</t>
-        </is>
-      </c>
-      <c r="BY9" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
-      <c r="BZ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA9" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="CB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC9" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>0.1979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
@@ -4058,7 +4050,7 @@
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
@@ -4066,19 +4058,23 @@
           <t>0</t>
         </is>
       </c>
-      <c r="CI9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>8950</t>
         </is>
       </c>
       <c r="CL9" t="n">
-        <v>8487.5</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="10">
@@ -4087,7 +4083,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.4826</t>
+          <t>0.4316</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4097,7 +4093,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.2909</t>
+          <t>0.4289</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4176,45 +4172,49 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>9450</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.5565</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.5931</t>
+          <t>0.9174</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>mediano</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4223,32 +4223,32 @@
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0.8466</t>
+          <t>0.7559</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.9232</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -4269,36 +4269,44 @@
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>5050</t>
+          <t>8950</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>0.1359</t>
+          <t>0.5751</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr"/>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>0.643</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AZ10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4318,17 +4326,17 @@
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.7419</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
@@ -4359,44 +4367,40 @@
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>750</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>10100</t>
+          <t>7150</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>0.5262</t>
+          <t>0.4617</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>0.9889</t>
+          <t>0.3814</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
         <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr">
         <is>
           <t>0</t>
@@ -4411,12 +4415,12 @@
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>0.9242</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
@@ -4426,7 +4430,7 @@
       </c>
       <c r="CC10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD10" t="inlineStr">
@@ -4457,16 +4461,16 @@
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="CL10" t="n">
-        <v>9300</v>
+        <v>7962.5</v>
       </c>
     </row>
     <row r="11">
@@ -4475,44 +4479,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.8254</t>
+          <t>0.4329</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.1258</t>
+          <t>0.6732</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>compacto</t>
+          <t>mediano</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.6903</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>0</t>
@@ -4521,12 +4517,12 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.311</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4536,17 +4532,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.3553</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4567,34 +4563,30 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>400</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>6950</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.3792</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -4620,7 +4612,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4661,36 +4653,44 @@
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>8950</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.7172</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr"/>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>mediano</t>
+        </is>
+      </c>
       <c r="AZ11" t="inlineStr">
         <is>
           <t>0</t>
@@ -4710,17 +4710,17 @@
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.8267</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
@@ -4751,17 +4751,17 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>750</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>10100</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>0.4956</t>
+          <t>0.2143</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>0.6969</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>mediano</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4799,12 +4799,12 @@
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>0.6881</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
@@ -4845,16 +4845,16 @@
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>13100</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="CL11" t="n">
-        <v>9712.5</v>
+        <v>8312.5</v>
       </c>
     </row>
     <row r="12">
@@ -4863,44 +4863,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.8922</t>
+          <t>0.1674</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.9297</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9578</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>de lujo</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.1993</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>0</t>
@@ -4909,188 +4897,196 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.9241</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No gana el sorteo</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>115739950</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0.8811</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>de lujo</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0.8134</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.7307</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.8854</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>No gana el sorteo</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>3750</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>115708750</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>79696150</t>
+          <t>79385850</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>0.6078</t>
+          <t>0.1534</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>0.5517</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>mediano</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>0.1719</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>compacto</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr">
         <is>
           <t>0</t>
@@ -5105,12 +5101,12 @@
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>0.7266</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
@@ -5120,7 +5116,7 @@
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
@@ -5155,40 +5151,44 @@
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>79179600</t>
+          <t>79110550</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>0.3266</t>
+          <t>0.7701</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>0.9674</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>de lujo</t>
+          <t>compacto</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr"/>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>compacto</t>
+        </is>
+      </c>
       <c r="BV12" t="inlineStr">
         <is>
           <t>0</t>
@@ -5203,12 +5203,12 @@
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>0.3621</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="CC12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="CD12" t="inlineStr">
@@ -5253,16 +5253,16 @@
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>79657150</t>
+          <t>79741550</t>
         </is>
       </c>
       <c r="CL12" t="n">
-        <v>88560412.5</v>
+        <v>88494475</v>
       </c>
     </row>
   </sheetData>
